--- a/split_data/standard_in/HsinChu/fixed.xlsx
+++ b/split_data/standard_in/HsinChu/fixed.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,17 +907,13 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>竹北市自強北路與十興路口</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>竹北市光明六路東二段與高鐵七路口</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>車輛不禮讓行人、違規迴轉</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -927,7 +923,11 @@
           <t>竹北分局</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法新增</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -938,12 +938,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>竹北市西濱路一段與西濱路二段265巷口(台61線)</t>
+          <t>竹北市自強北路與十興路口</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -969,12 +969,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>竹北市東興路二段316號前</t>
+          <t>竹北市西濱路一段與西濱路二段265巷口(台61線)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1000,17 +1000,17 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>竹北市興隆路與莊敬南路口</t>
+          <t>竹北市東興路二段316號前</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1031,17 +1031,17 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>竹北市東興路二段198號前</t>
+          <t>竹北市興隆路與莊敬南路口</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1062,27 +1062,27 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>竹東鎮東林路與北興路一段路口</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>竹北市東興路二段198號前</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>竹東分局</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+          <t>竹北分局</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1093,17 +1093,13 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>竹東鎮中興路一段94-2號</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>竹東鎮東林路與北興路一段路口</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、車輛不禮讓行人</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1113,7 +1109,11 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1124,13 +1124,17 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>竹東鎮中興路三段與學府路口</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>竹東鎮中興路一段94-2號</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>闖紅燈、未依標誌標線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1140,11 +1144,7 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1155,17 +1155,13 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路三段老爺山莊路口北上</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>竹東鎮中興路三段與學府路口</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、未依標誌標線號誌行駛</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1175,7 +1171,11 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1186,7 +1186,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路與台68線路口</t>
+          <t>竹東鎮中豐路三段老爺山莊路口北上</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1206,11 +1206,7 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1221,7 +1217,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>竹東鎮公道路616號前</t>
+          <t>竹東鎮中豐路與台68線路口</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1231,7 +1227,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1241,7 +1237,11 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1252,12 +1252,12 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>竹東鎮台68線(西向東)12.3公里處</t>
+          <t>竹東鎮公道路616號前</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大車80/小車90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1272,11 +1272,7 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>大車係指20噸以上大貨車</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1287,7 +1283,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>竹東鎮台68線(東向西)12公里處</t>
+          <t>竹東鎮台68線(西向東)12.3公里處</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1322,12 +1318,12 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>竹東鎮台68線竹東匝道口與北興路三段</t>
+          <t>竹東鎮台68線(東向西)12公里處</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>大車80/小車90</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1342,7 +1338,11 @@
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>大車係指20噸以上大貨車</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1353,12 +1353,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>峨眉鄉中豐公路中興中盛村路口(台3線83.5k)</t>
+          <t>竹東鎮台68線竹東匝道口與北興路三段</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1384,7 +1384,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線89.4K(往峨眉)</t>
+          <t>峨眉鄉中豐公路中興中盛村路口(台3線83.5k)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1415,7 +1415,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線89.6K(往竹東)</t>
+          <t>峨眉鄉台3線89.4K(往峨眉)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1446,7 +1446,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線91.2K</t>
+          <t>峨眉鄉台3線89.6K(往竹東)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1477,12 +1477,12 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>寶山鄉三峰路二段8號前</t>
+          <t>峨眉鄉台3線91.2K</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1508,12 +1508,12 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>寶山鄉雙林路一段(竹47-1線4.1K)</t>
+          <t>寶山鄉三峰路二段8號前</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1539,7 +1539,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>寶山鄉雙園路二段90巷5號前</t>
+          <t>寶山鄉雙林路一段(竹47-1線4.1K)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1570,12 +1570,12 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>寶山鄉寶山路一段228號旁</t>
+          <t>寶山鄉雙園路二段90巷5號前</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1601,7 +1601,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>寶山鄉寶山路二段(竹83線0.8K)</t>
+          <t>寶山鄉寶山路一段228號旁</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1632,12 +1632,12 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>新埔鎮文山路亞東段1008號前</t>
+          <t>寶山鄉寶山路二段(竹83線0.8K)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>新埔分局</t>
+          <t>竹東分局</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>新埔鎮文山路亞東段369號</t>
+          <t>新埔鎮文山路亞東段1008號前</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1694,12 +1694,12 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>新埔鎮新關路五埔段與1046巷口</t>
+          <t>新埔鎮文山路亞東段369號</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1725,12 +1725,12 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>新埔鎮楊新路楊新路一段322號前</t>
+          <t>新埔鎮新關路五埔段與1046巷口</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1756,17 +1756,17 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>新埔鎮褒忠路與文山路口</t>
+          <t>新埔鎮楊新路楊新路一段322號前</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1776,11 +1776,7 @@
           <t>新埔分局</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1791,13 +1787,17 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>關西鎮正義路與中山路口</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>新埔鎮褒忠路與文山路口</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
+          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1822,17 +1822,13 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>關西鎮大同茅仔埔5鄰35號旁</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>關西鎮正義路與中山路口</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、車輛不禮讓行人</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1842,7 +1838,11 @@
           <t>新埔分局</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1853,12 +1853,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路牛欄河6鄰63號</t>
+          <t>關西鎮大同茅仔埔5鄰35號旁</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1884,12 +1884,12 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路與十六張路口前</t>
+          <t>關西鎮中豐公路牛欄河6鄰63號</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1915,7 +1915,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路與中山東路口</t>
+          <t>關西鎮中豐公路與十六張路口前</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -1946,17 +1946,17 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>關西鎮石岡子路736號旁</t>
+          <t>關西鎮中豐公路與中山東路口</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -1977,12 +1977,12 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>關西鎮台3線62.1公里處</t>
+          <t>關西鎮石岡子路736號旁</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2008,12 +2008,12 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>湖口鄉八德路一段35號前</t>
+          <t>關西鎮台3線62.1公里處</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2025,7 +2025,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>新湖分局</t>
+          <t>新埔分局</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2039,7 +2039,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>湖口鄉八德路一段與中山路一段口南下</t>
+          <t>湖口鄉八德路一段35號前</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2070,7 +2070,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>湖口鄉八德路二段579號前</t>
+          <t>湖口鄉八德路一段與中山路一段口南下</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2101,12 +2101,12 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段與忠義路口南下</t>
+          <t>湖口鄉八德路二段579號前</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2132,7 +2132,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段與達生路口</t>
+          <t>湖口鄉中山路一段與忠義路口南下</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、機車未依規定兩段式左轉</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2152,11 +2152,7 @@
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2167,17 +2163,17 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>湖口鄉成功路與三元路路口</t>
+          <t>湖口鄉中山路一段與達生路口</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速、機車未依規定兩段式左轉</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2187,7 +2183,11 @@
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2198,7 +2198,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>湖口鄉新興路與中華路口</t>
+          <t>湖口鄉成功路與三元路路口</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標線號誌行駛、機車未兩段式</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2218,11 +2218,7 @@
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2233,13 +2229,17 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>新豐鄉新興路與建興路一段路口</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>湖口鄉新興路與中華路口</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
+          <t>闖紅燈、測速、未依標誌標線號誌行駛、機車未兩段式</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2264,13 +2264,13 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>新豐鄉康樂路一段與明新街口</t>
+          <t>新豐鄉新興路與建興路一段路口</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>未保持路口淨空</t>
+          <t>闖紅燈、車輛不禮讓行人</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2295,13 +2295,13 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>新豐鄉新興路與康樂路一段口</t>
+          <t>新豐鄉康樂路一段與明新街口</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>闖紅燈、未依標誌標線號誌行駛</t>
+          <t>未保持路口淨空</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2326,17 +2326,13 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>新豐鄉濱海公路埔和村189號之1南下</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>新豐鄉新興路與康樂路一段口</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、未依標誌標線號誌行駛</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2346,7 +2342,11 @@
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2357,7 +2357,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>新豐鄉台15線62.8公里處</t>
+          <t>新豐鄉濱海公路埔和村189號之1南下</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2377,11 +2377,7 @@
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2392,7 +2388,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>新豐鄉濱海公路與竹1-1線口(台15線64.4K)</t>
+          <t>新豐鄉台15線62.8公里處</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2423,12 +2419,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>新豐鄉台61線北上60.1公里處</t>
+          <t>新豐鄉濱海公路與竹1-1線口(台15線64.4K)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大車80/小車90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2443,11 +2439,7 @@
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>大車係指20噸以上大貨車</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2458,12 +2450,12 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>竹120線11.5K竹林交流道北上匝道口</t>
+          <t>新豐鄉台61線北上60.1公里處</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>大車80/小車90</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2475,10 +2467,14 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>橫山分局</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>新湖分局</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>大車係指20噸以上大貨車</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2489,7 +2485,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>芎林鄉富林路三段與光明路口</t>
+          <t>竹120線11.5K竹林交流道北上匝道口</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2520,7 +2516,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>芎林鄉文德路6號前</t>
+          <t>芎林鄉富林路三段與光明路口</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2551,12 +2547,12 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>芎林鄉文德路259號旁</t>
+          <t>芎林鄉文德路6號前</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2571,11 +2567,7 @@
           <t>橫山分局</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2586,12 +2578,12 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>芎林鄉富林路一段518前</t>
+          <t>芎林鄉文德路259號旁</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2617,7 +2609,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路一段與站前街口</t>
+          <t>芎林鄉富林路一段518前</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2627,7 +2619,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2648,17 +2640,17 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路三段139號前</t>
+          <t>橫山鄉中豐路一段與站前街口</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2679,12 +2671,12 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路與中豐路二段12巷口</t>
+          <t>橫山鄉中豐路三段139號前</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2700,6 +2692,37 @@
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>橫山鄉中豐路與中豐路二段12巷口</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>橫山分局</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2909,7 +2932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3030,7 +3053,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>竹東鎮中興路三段北往南(173-195號間)</t>
+          <t>竹北市高鐵七路北往南(光明六路東二段與高鐵東一路間)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -3043,11 +3066,43 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
+          <t>竹北分局</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>竹東鎮中興路三段北往南(173-195號間)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>違規（臨時）停車</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
